--- a/data_labeling.xlsx
+++ b/data_labeling.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\data tagging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\data tagging\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F1DC47A-0659-4344-A359-081BF46984DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854A1FE9-BC98-4109-A9F4-76ED7E4B997C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{D65C5C45-4BAD-41BA-B0CB-CF118BC0C527}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="341">
   <si>
     <t>text</t>
   </si>
@@ -1071,6 +1071,12 @@
   </si>
   <si>
     <t>Antasid merupakan obat untuk menurunkan asam lambung yang bekerja dengan cepat. Antasid biasanya digunakan sebagai terapi akut (saat gejala sedang muncul). Untuk terapi pemeliharaan dapat diberikan obat golongan PPIs seperti omeprazole atau lansoprazole.</t>
+  </si>
+  <si>
+    <t>Hindari dahulu konsumsi kopi atau teh.</t>
+  </si>
+  <si>
+    <t>Jangan terlambat makan (bawa bekal bila memang sulit untuk makan saat kerja)</t>
   </si>
 </sst>
 </file>
@@ -1519,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39B9CF6-C23A-402F-A5D2-01C4732053E9}">
   <dimension ref="A1:G654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
-      <selection activeCell="B655" sqref="B655"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6691,7 +6697,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="B645" t="s">
         <v>17</v>
@@ -6699,7 +6705,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="B646" t="s">
         <v>17</v>
@@ -6707,7 +6713,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="B647" t="s">
         <v>17</v>
@@ -6715,7 +6721,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
-        <v>222</v>
+        <v>340</v>
       </c>
       <c r="B648" t="s">
         <v>17</v>
@@ -6723,7 +6729,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
-        <v>223</v>
+        <v>311</v>
       </c>
       <c r="B649" t="s">
         <v>17</v>
@@ -6731,7 +6737,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="B650" t="s">
         <v>17</v>
